--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
